--- a/Proyectos/2016/1/P1421 - RNCFAC, Juan Lopez_MO/Planeacion/Plan_de_proyecto.xlsx
+++ b/Proyectos/2016/1/P1421 - RNCFAC, Juan Lopez_MO/Planeacion/Plan_de_proyecto.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_Toc120446011" localSheetId="1">'Datos Generales'!$A$9</definedName>
     <definedName name="_Toc120446011" localSheetId="0">Presentación!#REF!</definedName>
     <definedName name="_Toc120446019" localSheetId="2">'Recursos Humanos'!$A$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Plan Riesgos'!$A$1:$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Plan Riesgos'!$A$1:$F$20</definedName>
     <definedName name="Complej." localSheetId="4">#REF!</definedName>
     <definedName name="Complej." localSheetId="6">#REF!</definedName>
     <definedName name="Complej." localSheetId="0">#REF!</definedName>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -275,10 +275,7 @@
     <t>Referencia al documento de estimación del proyecto</t>
   </si>
   <si>
-    <t>Matriz de resposabilidades</t>
-  </si>
-  <si>
-    <t>Roles Equipo &lt;Interno&gt;</t>
+    <t>Roles Equipo &lt;SOS Software&gt;</t>
   </si>
   <si>
     <t>Rol</t>
@@ -320,15 +317,6 @@
     <t>Dar seguimiento a las ventas y seguir el proceso definido por la empresa</t>
   </si>
   <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <t>Jose Francisco Llamas Diaz</t>
-  </si>
-  <si>
-    <t>Realizar las actividades de soporte</t>
-  </si>
-  <si>
     <t>Calidad</t>
   </si>
   <si>
@@ -365,9 +353,6 @@
     <t>Dirigir todas las areas de la empresa</t>
   </si>
   <si>
-    <t>Roles Equipo &lt;Cliente&gt;</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -410,18 +395,9 @@
     <t>1 vez por proyecto</t>
   </si>
   <si>
-    <t>notificar la finalización de la actividad agendada</t>
-  </si>
-  <si>
-    <t>Notificar que la tarea se finalizó con éxito</t>
-  </si>
-  <si>
     <t>Reunion de compromiso</t>
   </si>
   <si>
-    <t>Marisol Ornelas, Oriana Campos, Jovanny Zepeda, Ricardo Novela,</t>
-  </si>
-  <si>
     <t>obtener compromiso de proyecto</t>
   </si>
   <si>
@@ -533,54 +509,9 @@
     <t>Frecuencia de monitoreo</t>
   </si>
   <si>
-    <t>Falla de conexión remota con Ammyy Admin En caso de fallar la conexión remota con Ammy Admin por no instalación o problemas de equipo no permite comnicacion con usuario</t>
-  </si>
-  <si>
-    <t>TeamViwer, Show myPC</t>
-  </si>
-  <si>
-    <t>Solicitar la instalación de TeamViwer o Show MyPC</t>
-  </si>
-  <si>
-    <t>Cerrado</t>
-  </si>
-  <si>
     <t>Semanal</t>
   </si>
   <si>
-    <t>En caso de presentar problemas de instalación y configuración por problemas de compatibilidad puede evitar  aceptacion de proyecto</t>
-  </si>
-  <si>
-    <t>Validar los requerimientos minimos del equipo</t>
-  </si>
-  <si>
-    <t>Buscar y ejecutar la solución</t>
-  </si>
-  <si>
-    <t>Ocurrido</t>
-  </si>
-  <si>
-    <t>Falla de descarga de programa ocasionada por una conexión a internet pobre o limitada alarga la instalacion del sistema</t>
-  </si>
-  <si>
-    <t>Validar que la descarga se halla realizado</t>
-  </si>
-  <si>
-    <t>Reagenda la cita</t>
-  </si>
-  <si>
-    <t>Falla electrica por problemas variables que afecta el uso de dispositivos</t>
-  </si>
-  <si>
-    <t>Home work</t>
-  </si>
-  <si>
-    <t>Comunicación con el cliente para reagendar cita</t>
-  </si>
-  <si>
-    <t>El servicio de internet puede perder señal dañando la conexión y proceso de trabajo</t>
-  </si>
-  <si>
     <t>Tener contrato con varias compañias de internet</t>
   </si>
   <si>
@@ -596,7 +527,7 @@
     <t>MA</t>
   </si>
   <si>
-    <t>No obtener carta de aceptación por un cliente que no contesta mensajes impide cierre de proyecto</t>
+    <t>No obtener carta de aceptación por un cliente que no contesta mensajes, efecto es que no se finaliza correctamente nuestro proceso CMMI</t>
   </si>
   <si>
     <t>Enviar factura hasta obtener carta de aceptación</t>
@@ -638,40 +569,43 @@
     <t>Alto</t>
   </si>
   <si>
-    <t>notificar que se recibio el comprobante de renovacion</t>
-  </si>
-  <si>
-    <t>Enterar al cliente que se realizo la renovacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P1412 - HR, Alvaro Moreno_MO</t>
-  </si>
-  <si>
-    <t>Solucionar los inconvenientes generados por sus sistemas</t>
-  </si>
-  <si>
-    <t>https://contpaqi911.bitrix24.com/crm/deal/show/14606/</t>
-  </si>
-  <si>
-    <t>Francisco Llamas</t>
-  </si>
-  <si>
-    <t>francisco.llamas@sos-soft.com</t>
-  </si>
-  <si>
-    <t>callto:3316367365</t>
-  </si>
-  <si>
-    <t>Alvaro Moreno</t>
-  </si>
-  <si>
-    <t>callto:3336209772</t>
-  </si>
-  <si>
-    <t>administracion@kayuli.com</t>
-  </si>
-  <si>
-    <t>Propocionar conexión a su equipo</t>
+    <t>Marisol Ornelas Casillas</t>
+  </si>
+  <si>
+    <t>Renovacion y actualizacion de sus licencias</t>
+  </si>
+  <si>
+    <t>Marisol Ornelas, Alma Garcia,Braulio Toro, Jovanny Zepeda, Ricardo Novela,</t>
+  </si>
+  <si>
+    <t>Matriz de responsabilidades</t>
+  </si>
+  <si>
+    <t>Notificar la renovacion de su licencia</t>
+  </si>
+  <si>
+    <t>Notificar a cliente que ha sido renovado su sistema</t>
+  </si>
+  <si>
+    <t>El servicio de internet puede perder señal dañando la conexión y proceso de trabajo, retasando la solicitud de su licencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P1421 - RNCFAC, Juan Lopez_MO</t>
+  </si>
+  <si>
+    <t>https://contpaqi911.bitrix24.com/crm/deal/show/14790/</t>
+  </si>
+  <si>
+    <t>Roles Equipo &lt;Juan Lopez&gt;</t>
+  </si>
+  <si>
+    <t>Juan Lopez</t>
+  </si>
+  <si>
+    <t>callto:5570306310</t>
+  </si>
+  <si>
+    <t>asesormex10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -681,7 +615,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -743,6 +677,13 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -921,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1038,50 +979,6 @@
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1260,11 +1157,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,6 +1242,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1358,15 +1258,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +1324,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,16 +1341,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1462,10 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,64 +1371,57 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="18" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1542,52 +1432,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2011,11 +1904,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.6" customHeight="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
     </row>
     <row r="2" spans="1:3" ht="26.1" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2030,62 +1923,62 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="142" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="142"/>
+      <c r="B3" s="138" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="142"/>
+      <c r="C4" s="138"/>
     </row>
     <row r="5" spans="1:3" ht="15.6" customHeight="1">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="142" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="142"/>
+      <c r="B6" s="138" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="138"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="141">
-        <v>42369</v>
-      </c>
-      <c r="C7" s="141"/>
+      <c r="B7" s="137">
+        <v>42377</v>
+      </c>
+      <c r="C7" s="137"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="142"/>
+      <c r="C8" s="138"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="143">
-        <v>42369</v>
-      </c>
-      <c r="C9" s="143"/>
+      <c r="B9" s="139">
+        <v>42377</v>
+      </c>
+      <c r="C9" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2099,7 +1992,7 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2107,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="22.5" outlineLevelRow="1"/>
@@ -3158,10 +3051,10 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="21.75" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="144"/>
+      <c r="B2" s="140"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -4190,7 +4083,7 @@
       </c>
       <c r="B3" s="6" t="str">
         <f>Presentación!B3</f>
-        <v xml:space="preserve"> P1412 - HR, Alvaro Moreno_MO</v>
+        <v xml:space="preserve"> P1421 - RNCFAC, Juan Lopez_MO</v>
       </c>
     </row>
     <row r="4" spans="1:1023" ht="12.75" customHeight="1">
@@ -4205,42 +4098,42 @@
       <c r="D4"/>
     </row>
     <row r="5" spans="1:1023" ht="19.5" customHeight="1">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="144"/>
+      <c r="B5" s="140"/>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:1023" ht="42.75" customHeight="1">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="142"/>
+      <c r="B6" s="138"/>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:1023" ht="21.75" customHeight="1">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="144"/>
+      <c r="B7" s="140"/>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:1023" ht="146.25" customHeight="1">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="142"/>
+      <c r="B8" s="138"/>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:1023" ht="19.5" customHeight="1">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="144"/>
+      <c r="B9" s="140"/>
       <c r="C9"/>
       <c r="D9"/>
     </row>
@@ -4279,12 +4172,12 @@
       <c r="D13"/>
     </row>
     <row r="14" spans="1:1023" ht="20.25" customHeight="1">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
     </row>
     <row r="15" spans="1:1023" ht="27" customHeight="1" outlineLevel="1">
       <c r="A15" s="11" t="s">
@@ -4308,10 +4201,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="14">
-        <v>42369</v>
+        <v>42377</v>
       </c>
       <c r="D16" s="14">
-        <v>42369</v>
+        <v>42377</v>
       </c>
     </row>
     <row r="17" spans="1:4" outlineLevel="1">
@@ -4322,10 +4215,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="14">
-        <v>42374</v>
+        <v>42387</v>
       </c>
       <c r="D17" s="14">
-        <v>42374</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="18" spans="1:4" outlineLevel="1">
@@ -4336,9 +4229,11 @@
         <v>33</v>
       </c>
       <c r="C18" s="14">
-        <v>42347</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>42384</v>
+      </c>
+      <c r="D18" s="14">
+        <v>42384</v>
+      </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1">
       <c r="A19" s="13"/>
@@ -4364,10 +4259,10 @@
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" customHeight="1">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="144"/>
+      <c r="B23" s="140"/>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="59.65" customHeight="1">
@@ -4378,50 +4273,45 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" customHeight="1">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="140"/>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="53.65" customHeight="1">
-      <c r="A26" s="148" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="148"/>
+      <c r="A26" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="144"/>
       <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="144"/>
+      <c r="B27" s="140"/>
     </row>
     <row r="28" spans="1:4" ht="53.25" customHeight="1">
-      <c r="A28" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="146"/>
+      <c r="A28" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="142"/>
     </row>
     <row r="29" spans="1:4" ht="21" customHeight="1">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="144"/>
+      <c r="B29" s="140"/>
     </row>
     <row r="30" spans="1:4" ht="45.75" customHeight="1">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="147"/>
+      <c r="B30" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
@@ -4431,6 +4321,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1"/>
@@ -4442,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4461,7 +4356,7 @@
     <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="19"/>
       <c r="B1" s="19" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -4469,7 +4364,7 @@
     </row>
     <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4478,122 +4373,112 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25">
       <c r="A4" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>51</v>
       </c>
       <c r="C5" s="25">
         <v>3313482553</v>
       </c>
       <c r="D5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="27" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="38.25">
+      <c r="A6" s="25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="25" t="s">
+      <c r="B6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>167</v>
+      <c r="C6" s="25">
+        <v>3318039095</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="25">
-        <v>3318039095</v>
+      <c r="C7" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="25">
+        <v>3312448000</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="25">
-        <v>3312448000</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>68</v>
-      </c>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="25"/>
@@ -4602,38 +4487,36 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75">
-      <c r="A12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+    <row r="11" spans="1:5" ht="18.75">
+      <c r="A11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="25"/>
@@ -4650,45 +4533,38 @@
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35" t="s">
-        <v>72</v>
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4700,7 +4576,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4714,98 +4590,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>77</v>
+      <c r="A1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4819,62 +4695,62 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMI11"/>
+  <dimension ref="A1:AMI10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="42"/>
-    <col min="2" max="2" width="19.5703125" style="42"/>
-    <col min="3" max="3" width="19.42578125" style="42"/>
-    <col min="4" max="4" width="48.28515625" style="42"/>
-    <col min="5" max="5" width="21.5703125" style="42"/>
-    <col min="6" max="250" width="11.42578125" style="42"/>
-    <col min="251" max="251" width="2.7109375" style="42"/>
-    <col min="252" max="252" width="19" style="42"/>
-    <col min="253" max="253" width="19.5703125" style="42"/>
-    <col min="254" max="254" width="14.28515625" style="42"/>
-    <col min="255" max="255" width="19.42578125" style="42"/>
-    <col min="256" max="256" width="56" style="42"/>
-    <col min="257" max="257" width="21.5703125" style="42"/>
-    <col min="258" max="258" width="23" style="42"/>
-    <col min="259" max="259" width="16.5703125" style="42"/>
-    <col min="260" max="260" width="14.28515625" style="42"/>
-    <col min="261" max="261" width="15.28515625" style="42"/>
-    <col min="262" max="506" width="11.42578125" style="42"/>
-    <col min="507" max="507" width="2.7109375" style="42"/>
-    <col min="508" max="508" width="19" style="42"/>
-    <col min="509" max="509" width="19.5703125" style="42"/>
-    <col min="510" max="510" width="14.28515625" style="42"/>
-    <col min="511" max="511" width="19.42578125" style="42"/>
-    <col min="512" max="512" width="56" style="42"/>
-    <col min="513" max="513" width="21.5703125" style="42"/>
-    <col min="514" max="514" width="23" style="42"/>
-    <col min="515" max="515" width="16.5703125" style="42"/>
-    <col min="516" max="516" width="14.28515625" style="42"/>
-    <col min="517" max="517" width="15.28515625" style="42"/>
-    <col min="518" max="762" width="11.42578125" style="42"/>
-    <col min="763" max="763" width="2.7109375" style="42"/>
-    <col min="764" max="764" width="19" style="42"/>
-    <col min="765" max="765" width="19.5703125" style="42"/>
-    <col min="766" max="766" width="14.28515625" style="42"/>
-    <col min="767" max="767" width="19.42578125" style="42"/>
-    <col min="768" max="768" width="56" style="42"/>
-    <col min="769" max="769" width="21.5703125" style="42"/>
-    <col min="770" max="770" width="23" style="42"/>
-    <col min="771" max="771" width="16.5703125" style="42"/>
-    <col min="772" max="772" width="14.28515625" style="42"/>
-    <col min="773" max="773" width="15.28515625" style="42"/>
-    <col min="774" max="1018" width="11.42578125" style="42"/>
-    <col min="1019" max="1019" width="2.7109375" style="42"/>
-    <col min="1020" max="1020" width="19" style="42"/>
-    <col min="1021" max="1021" width="19.5703125" style="42"/>
-    <col min="1022" max="1022" width="14.28515625" style="42"/>
-    <col min="1023" max="1023" width="19.42578125" style="42"/>
+    <col min="1" max="1" width="22.85546875" style="43"/>
+    <col min="2" max="2" width="19.5703125" style="43"/>
+    <col min="3" max="3" width="19.42578125" style="43"/>
+    <col min="4" max="4" width="48.28515625" style="43"/>
+    <col min="5" max="5" width="21.5703125" style="43"/>
+    <col min="6" max="250" width="11.42578125" style="43"/>
+    <col min="251" max="251" width="2.7109375" style="43"/>
+    <col min="252" max="252" width="19" style="43"/>
+    <col min="253" max="253" width="19.5703125" style="43"/>
+    <col min="254" max="254" width="14.28515625" style="43"/>
+    <col min="255" max="255" width="19.42578125" style="43"/>
+    <col min="256" max="256" width="56" style="43"/>
+    <col min="257" max="257" width="21.5703125" style="43"/>
+    <col min="258" max="258" width="23" style="43"/>
+    <col min="259" max="259" width="16.5703125" style="43"/>
+    <col min="260" max="260" width="14.28515625" style="43"/>
+    <col min="261" max="261" width="15.28515625" style="43"/>
+    <col min="262" max="506" width="11.42578125" style="43"/>
+    <col min="507" max="507" width="2.7109375" style="43"/>
+    <col min="508" max="508" width="19" style="43"/>
+    <col min="509" max="509" width="19.5703125" style="43"/>
+    <col min="510" max="510" width="14.28515625" style="43"/>
+    <col min="511" max="511" width="19.42578125" style="43"/>
+    <col min="512" max="512" width="56" style="43"/>
+    <col min="513" max="513" width="21.5703125" style="43"/>
+    <col min="514" max="514" width="23" style="43"/>
+    <col min="515" max="515" width="16.5703125" style="43"/>
+    <col min="516" max="516" width="14.28515625" style="43"/>
+    <col min="517" max="517" width="15.28515625" style="43"/>
+    <col min="518" max="762" width="11.42578125" style="43"/>
+    <col min="763" max="763" width="2.7109375" style="43"/>
+    <col min="764" max="764" width="19" style="43"/>
+    <col min="765" max="765" width="19.5703125" style="43"/>
+    <col min="766" max="766" width="14.28515625" style="43"/>
+    <col min="767" max="767" width="19.42578125" style="43"/>
+    <col min="768" max="768" width="56" style="43"/>
+    <col min="769" max="769" width="21.5703125" style="43"/>
+    <col min="770" max="770" width="23" style="43"/>
+    <col min="771" max="771" width="16.5703125" style="43"/>
+    <col min="772" max="772" width="14.28515625" style="43"/>
+    <col min="773" max="773" width="15.28515625" style="43"/>
+    <col min="774" max="1018" width="11.42578125" style="43"/>
+    <col min="1019" max="1019" width="2.7109375" style="43"/>
+    <col min="1020" max="1020" width="19" style="43"/>
+    <col min="1021" max="1021" width="19.5703125" style="43"/>
+    <col min="1022" max="1022" width="14.28515625" style="43"/>
+    <col min="1023" max="1023" width="19.42578125" style="43"/>
     <col min="1024" max="1025" width="19.42578125"/>
   </cols>
   <sheetData>
@@ -5904,13 +5780,13 @@
       <c r="AMI1"/>
     </row>
     <row r="2" spans="1:1023" ht="28.5" customHeight="1">
-      <c r="A2" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
+      <c r="A2" s="145" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -6931,20 +6807,20 @@
       <c r="AMI2"/>
     </row>
     <row r="3" spans="1:1023">
-      <c r="A3" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>82</v>
+      <c r="B3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>77</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -7966,11 +7842,11 @@
       <c r="AMI3"/>
     </row>
     <row r="4" spans="1:1023">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -8990,101 +8866,84 @@
       <c r="AMH4"/>
       <c r="AMI4"/>
     </row>
-    <row r="5" spans="1:1023" s="49" customFormat="1" ht="38.25">
-      <c r="A5" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="48" t="s">
+    <row r="5" spans="1:1023" s="50" customFormat="1" ht="25.5">
+      <c r="A5" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1023" s="50" customFormat="1" ht="51">
+      <c r="A6" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1023" s="50" customFormat="1" ht="25.5">
+      <c r="A7" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:1023" s="49" customFormat="1" ht="25.5">
-      <c r="A6" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="E7" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1023" s="49" customFormat="1" ht="51">
-      <c r="A7" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1023" s="49" customFormat="1" ht="25.5">
-      <c r="A8" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1023" s="49" customFormat="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="48"/>
+    </row>
+    <row r="8" spans="1:1023" s="50" customFormat="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:1023">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:1023">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-    </row>
-    <row r="11" spans="1:1023">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="IT5:IT11 SP5:SP11 ACL5:ACL11 AMH5:AMH11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AMH5:AMH10 ACL5:ACL10 SP5:SP10 IT5:IT10">
       <formula1>"Orientación,Reporte,Reunión Periódica"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9100,21 +8959,21 @@
   <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="50"/>
-    <col min="2" max="2" width="12.7109375" style="50"/>
-    <col min="3" max="3" width="22.28515625" style="50"/>
-    <col min="4" max="4" width="11.7109375" style="50"/>
-    <col min="5" max="5" width="16" style="50"/>
-    <col min="6" max="6" width="11.42578125" style="50"/>
-    <col min="7" max="7" width="26" style="50"/>
-    <col min="8" max="9" width="11.42578125" style="50"/>
-    <col min="10" max="10" width="13.7109375" style="50"/>
-    <col min="11" max="1023" width="11.42578125" style="50"/>
+    <col min="1" max="1" width="32.42578125" style="51"/>
+    <col min="2" max="2" width="12.7109375" style="51"/>
+    <col min="3" max="3" width="22.28515625" style="51"/>
+    <col min="4" max="4" width="11.7109375" style="51"/>
+    <col min="5" max="5" width="16" style="51"/>
+    <col min="6" max="6" width="11.42578125" style="51"/>
+    <col min="7" max="7" width="26" style="51"/>
+    <col min="8" max="9" width="11.42578125" style="51"/>
+    <col min="10" max="10" width="13.7109375" style="51"/>
+    <col min="11" max="1023" width="11.42578125" style="51"/>
     <col min="1024" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
@@ -9129,196 +8988,190 @@
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A2" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
+      <c r="A2" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
       <c r="J2"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="J4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="12" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="B5" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="J5" s="54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51">
+      <c r="A6" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="B6" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="C6" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="31">
+        <v>2</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="30">
-        <v>1</v>
-      </c>
-      <c r="E4" s="52">
-        <v>42369</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="J4" s="53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="30">
-        <v>1</v>
-      </c>
-      <c r="E5" s="52">
-        <v>42369</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="J5" s="53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="51">
-      <c r="A6" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="30">
-        <v>2</v>
-      </c>
-      <c r="E6" s="52">
-        <v>42369</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>108</v>
+      <c r="J6" s="54" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="51"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="30"/>
-      <c r="J7" s="53"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="31"/>
+      <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="51"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="30"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="54"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="30"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="51"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="30"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="51"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="30"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="51"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="30"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9338,10 +9191,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:JA43"/>
+  <dimension ref="A1:JA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9361,1065 +9214,913 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:261">
-      <c r="A1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="A1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:261" ht="23.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="58" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+      <c r="IR2" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="IS2" s="62"/>
+      <c r="IT2" s="62"/>
+      <c r="IU2" s="62"/>
+      <c r="IV2" s="62"/>
+      <c r="IW2" s="62"/>
+      <c r="IX2" s="62"/>
+      <c r="IY2" s="62"/>
+      <c r="IZ2" s="62"/>
+      <c r="JA2" s="62"/>
+    </row>
+    <row r="3" spans="1:261">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+      <c r="AE3" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:261" ht="30">
+      <c r="A4" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-      <c r="IR2" s="61" t="s">
+      <c r="F4" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="IS2" s="61"/>
-      <c r="IT2" s="61"/>
-      <c r="IU2" s="61"/>
-      <c r="IV2" s="61"/>
-      <c r="IW2" s="61"/>
-      <c r="IX2" s="61"/>
-      <c r="IY2" s="61"/>
-      <c r="IZ2" s="61"/>
-      <c r="JA2" s="61"/>
-    </row>
-    <row r="3" spans="1:261">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="AE3" s="67" t="s">
+      <c r="G4" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="67" t="s">
+      <c r="H4" s="71" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:261" ht="30">
-      <c r="A4" s="68" t="s">
+      <c r="I4" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="J4" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="K4" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="70" t="s">
+      <c r="AE4" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF4" s="73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:261" ht="63.75">
+      <c r="A5" s="74">
+        <v>5</v>
+      </c>
+      <c r="B5" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="74">
+        <v>5</v>
+      </c>
+      <c r="D5" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="74">
+        <f t="shared" ref="E5:E20" si="0">PRODUCT(C5:D5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="74">
+        <v>4</v>
+      </c>
+      <c r="G5" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="H5" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="I5" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="K5" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="IS5" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="IT5" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="IU5" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="IV5" s="82">
+        <f>(IV10*IU5)</f>
+        <v>0.9</v>
+      </c>
+      <c r="IW5" s="83">
+        <f>(IW10*IU5)</f>
+        <v>1.8</v>
+      </c>
+      <c r="IX5" s="84">
+        <f>(IX10*IU5)</f>
+        <v>2.7</v>
+      </c>
+      <c r="IY5" s="85">
+        <f>(IY10*IU5)</f>
+        <v>3.6</v>
+      </c>
+      <c r="IZ5" s="86">
+        <f>(IZ10*IU5)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:261" ht="76.5">
+      <c r="A6" s="87">
+        <v>6</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE4" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF4" s="72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:261" ht="89.25">
-      <c r="A5" s="73">
+      <c r="C6" s="74">
         <v>1</v>
       </c>
-      <c r="B5" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="73">
-        <v>1</v>
-      </c>
-      <c r="D5" s="75">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="73">
-        <f>PRODUCT(A5:D5)</f>
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="73">
-        <v>4</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" s="78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:261" ht="76.5">
-      <c r="A6" s="73">
-        <v>2</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="73">
-        <v>4</v>
-      </c>
-      <c r="D6" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="73">
-        <f t="shared" ref="E6:E24" si="0">PRODUCT(C6:D6)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="73">
-        <v>3</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:261" ht="63.75">
-      <c r="A7" s="73">
-        <v>3</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="73">
-        <v>4</v>
-      </c>
-      <c r="D7" s="75">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="73">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="73">
-        <v>3</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:261" ht="38.25">
-      <c r="A8" s="73">
-        <v>4</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="73">
-        <v>5</v>
-      </c>
-      <c r="D8" s="75">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="73">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="73">
-        <v>4</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="IS8" s="79"/>
-      <c r="IT8" s="80"/>
-      <c r="IU8" s="80"/>
-      <c r="IV8" s="81"/>
-      <c r="IW8" s="82"/>
-      <c r="IX8" s="82"/>
-      <c r="IY8" s="82"/>
-      <c r="IZ8" s="83"/>
-    </row>
-    <row r="9" spans="1:261" ht="58.5">
-      <c r="A9" s="73">
-        <v>5</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="73">
-        <v>5</v>
-      </c>
-      <c r="D9" s="75">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="73">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="73">
-        <v>4</v>
-      </c>
-      <c r="G9" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="IS9" s="84" t="s">
-        <v>144</v>
-      </c>
-      <c r="IT9" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="IU9" s="86">
-        <v>0.9</v>
-      </c>
-      <c r="IV9" s="87">
-        <f>(IV14*IU9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="IW9" s="88">
-        <f>(IW14*IU9)</f>
-        <v>1.8</v>
-      </c>
-      <c r="IX9" s="89">
-        <f>(IX14*IU9)</f>
-        <v>2.7</v>
-      </c>
-      <c r="IY9" s="90">
-        <f>(IY14*IU9)</f>
-        <v>3.6</v>
-      </c>
-      <c r="IZ9" s="91">
-        <f>(IZ14*IU9)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:261" ht="51">
-      <c r="A10" s="92">
-        <v>6</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="73">
-        <v>1</v>
-      </c>
-      <c r="D10" s="75">
+      <c r="D6" s="76">
         <v>0.7</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E6" s="74">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F6" s="74">
         <v>3</v>
       </c>
-      <c r="G10" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="IS10" s="84"/>
-      <c r="IT10" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="IU10" s="86">
+      <c r="G6" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="IS6" s="79"/>
+      <c r="IT6" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="IU6" s="81">
         <v>0.7</v>
       </c>
-      <c r="IV10" s="93">
-        <f>(IV14*IU10)</f>
+      <c r="IV6" s="88">
+        <f>(IV10*IU6)</f>
         <v>0.7</v>
       </c>
-      <c r="IW10" s="94">
-        <f>(IW14*IU10)</f>
+      <c r="IW6" s="89">
+        <f>(IW10*IU6)</f>
         <v>1.4</v>
       </c>
-      <c r="IX10" s="95">
-        <f>(IX14*IU10)</f>
+      <c r="IX6" s="90">
+        <f>(IX10*IU6)</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="IY10" s="96">
-        <f>(IY14*IU10)</f>
+      <c r="IY6" s="91">
+        <f>(IY10*IU6)</f>
         <v>2.8</v>
       </c>
-      <c r="IZ10" s="97">
-        <f>(IZ14*IU10)</f>
+      <c r="IZ6" s="92">
+        <f>(IZ10*IU6)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:261" ht="15">
-      <c r="A11" s="92">
+    <row r="7" spans="1:261" ht="15">
+      <c r="A7" s="87">
         <v>7</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="92">
+      <c r="B7" s="75"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100"/>
-      <c r="IS11" s="84"/>
-      <c r="IT11" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="IU11" s="86">
+      <c r="F7" s="87"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="IS7" s="79"/>
+      <c r="IT7" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="IU7" s="81">
         <v>0.5</v>
       </c>
-      <c r="IV11" s="93">
-        <f>(IV14*IU11)</f>
+      <c r="IV7" s="88">
+        <f>(IV10*IU7)</f>
         <v>0.5</v>
       </c>
-      <c r="IW11" s="101">
-        <f>(IW14*IU11)</f>
+      <c r="IW7" s="96">
+        <f>(IW10*IU7)</f>
         <v>1</v>
       </c>
-      <c r="IX11" s="94">
-        <f>(IX14*IU11)</f>
+      <c r="IX7" s="89">
+        <f>(IX10*IU7)</f>
         <v>1.5</v>
       </c>
-      <c r="IY11" s="94">
-        <f>(IY14*IU11)</f>
+      <c r="IY7" s="89">
+        <f>(IY10*IU7)</f>
         <v>2</v>
       </c>
-      <c r="IZ11" s="102">
-        <f>(IZ14*IU11)</f>
+      <c r="IZ7" s="97">
+        <f>(IZ10*IU7)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:261" ht="15">
-      <c r="A12" s="92">
+    <row r="8" spans="1:261" ht="15">
+      <c r="A8" s="87">
         <v>8</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="92">
+      <c r="B8" s="75"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="100"/>
-      <c r="IS12" s="84"/>
-      <c r="IT12" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="IU12" s="86">
+      <c r="F8" s="87"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
+      <c r="IS8" s="79"/>
+      <c r="IT8" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="IU8" s="81">
         <v>0.3</v>
       </c>
-      <c r="IV12" s="103">
-        <f>(IV14*IU12)</f>
+      <c r="IV8" s="98">
+        <f>(IV10*IU8)</f>
         <v>0.3</v>
       </c>
-      <c r="IW12" s="104">
-        <f>(IW14*IU12)</f>
+      <c r="IW8" s="99">
+        <f>(IW10*IU8)</f>
         <v>0.6</v>
       </c>
-      <c r="IX12" s="94">
-        <f>(IX14*IU12)</f>
+      <c r="IX8" s="89">
+        <f>(IX10*IU8)</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="IY12" s="94">
-        <f>(IY14*IU12)</f>
+      <c r="IY8" s="89">
+        <f>(IY10*IU8)</f>
         <v>1.2</v>
       </c>
-      <c r="IZ12" s="105">
-        <f>(IZ14*IU12)</f>
+      <c r="IZ8" s="100">
+        <f>(IZ10*IU8)</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:261" ht="15">
-      <c r="A13" s="92">
+    <row r="9" spans="1:261" ht="15">
+      <c r="A9" s="87">
         <v>9</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="92">
+      <c r="B9" s="75"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="100"/>
-      <c r="IS13" s="84"/>
-      <c r="IT13" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="IU13" s="107">
+      <c r="F9" s="87"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="IS9" s="79"/>
+      <c r="IT9" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="IU9" s="102">
         <v>0.1</v>
       </c>
-      <c r="IV13" s="108">
-        <f>(IV14*IU13)</f>
+      <c r="IV9" s="103">
+        <f>(IV10*IU9)</f>
         <v>0.1</v>
       </c>
-      <c r="IW13" s="109">
-        <f>(IW14*IU13)</f>
+      <c r="IW9" s="104">
+        <f>(IW10*IU9)</f>
         <v>0.2</v>
       </c>
-      <c r="IX13" s="110">
-        <f>(IX14*IV13)</f>
+      <c r="IX9" s="105">
+        <f>(IX10*IV9)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="IY13" s="110">
-        <f>(IY14*IU13)</f>
+      <c r="IY9" s="105">
+        <f>(IY10*IU9)</f>
         <v>0.4</v>
       </c>
-      <c r="IZ13" s="111">
-        <f>(IZ14*IU13)</f>
+      <c r="IZ9" s="106">
+        <f>(IZ10*IU9)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:261" ht="15">
-      <c r="A14" s="112">
+    <row r="10" spans="1:261" ht="15">
+      <c r="A10" s="107">
         <v>10</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="112">
+      <c r="B10" s="108"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
-      <c r="IS14" s="119"/>
-      <c r="IT14" s="120"/>
-      <c r="IU14" s="85"/>
-      <c r="IV14" s="86">
+      <c r="F10" s="107"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113"/>
+      <c r="IS10" s="114"/>
+      <c r="IT10" s="115"/>
+      <c r="IU10" s="80"/>
+      <c r="IV10" s="81">
         <v>1</v>
       </c>
-      <c r="IW14" s="86">
+      <c r="IW10" s="81">
         <v>2</v>
       </c>
-      <c r="IX14" s="86">
+      <c r="IX10" s="81">
         <v>3</v>
       </c>
-      <c r="IY14" s="86">
+      <c r="IY10" s="81">
         <v>4</v>
       </c>
-      <c r="IZ14" s="121">
+      <c r="IZ10" s="116">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:261" ht="15">
-      <c r="A15" s="112">
+    <row r="11" spans="1:261" ht="15">
+      <c r="A11" s="107">
         <v>11</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="112">
+      <c r="B11" s="108"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="118"/>
-      <c r="IS15" s="119"/>
-      <c r="IT15" s="120"/>
-      <c r="IU15" s="120"/>
-      <c r="IV15" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="IW15" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="IX15" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="IY15" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="IZ15" s="122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:261" ht="15">
-      <c r="A16" s="112">
+      <c r="F11" s="107"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
+      <c r="IS11" s="114"/>
+      <c r="IT11" s="115"/>
+      <c r="IU11" s="115"/>
+      <c r="IV11" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="IW11" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="IX11" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="IY11" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="IZ11" s="117" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:261" ht="15">
+      <c r="A12" s="107">
         <v>12</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="112">
+      <c r="B12" s="108"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
-      <c r="IS16" s="119"/>
-      <c r="IT16" s="120"/>
-      <c r="IU16" s="86"/>
-      <c r="IV16" s="123" t="s">
-        <v>154</v>
-      </c>
-      <c r="IW16" s="123"/>
-      <c r="IX16" s="123"/>
-      <c r="IY16" s="123"/>
-      <c r="IZ16" s="123"/>
-    </row>
-    <row r="17" spans="1:260" ht="15">
-      <c r="A17" s="112">
+      <c r="F12" s="107"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
+      <c r="IS12" s="114"/>
+      <c r="IT12" s="115"/>
+      <c r="IU12" s="81"/>
+      <c r="IV12" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="IW12" s="118"/>
+      <c r="IX12" s="118"/>
+      <c r="IY12" s="118"/>
+      <c r="IZ12" s="118"/>
+    </row>
+    <row r="13" spans="1:261" ht="15">
+      <c r="A13" s="107">
         <v>13</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="112">
+      <c r="B13" s="108"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
-      <c r="IS17" s="119"/>
-      <c r="IT17" s="120"/>
-      <c r="IU17" s="120"/>
-      <c r="IV17" s="120"/>
-      <c r="IW17" s="120"/>
-      <c r="IX17" s="120"/>
-      <c r="IY17" s="120"/>
-      <c r="IZ17" s="124"/>
-    </row>
-    <row r="18" spans="1:260" ht="15">
-      <c r="A18" s="112">
+      <c r="F13" s="107"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="113"/>
+      <c r="IS13" s="114"/>
+      <c r="IT13" s="115"/>
+      <c r="IU13" s="115"/>
+      <c r="IV13" s="115"/>
+      <c r="IW13" s="115"/>
+      <c r="IX13" s="115"/>
+      <c r="IY13" s="115"/>
+      <c r="IZ13" s="119"/>
+    </row>
+    <row r="14" spans="1:261" ht="15">
+      <c r="A14" s="107">
         <v>14</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="112">
+      <c r="B14" s="108"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
-      <c r="IS18" s="119"/>
-      <c r="IT18" s="120"/>
-      <c r="IU18" s="125"/>
-      <c r="IV18" s="125"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="113"/>
+      <c r="IS14" s="114"/>
+      <c r="IT14" s="115"/>
+      <c r="IU14" s="120"/>
+      <c r="IV14" s="120"/>
+      <c r="IW14" s="120"/>
+      <c r="IX14" s="120"/>
+      <c r="IY14" s="120"/>
+      <c r="IZ14" s="121"/>
+    </row>
+    <row r="15" spans="1:261" ht="15">
+      <c r="A15" s="107">
+        <v>15</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="107"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
+      <c r="IS15" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="IT15" s="122"/>
+      <c r="IU15" s="120"/>
+      <c r="IV15" s="120"/>
+      <c r="IW15" s="120"/>
+      <c r="IX15" s="120"/>
+      <c r="IY15" s="120"/>
+      <c r="IZ15" s="121"/>
+    </row>
+    <row r="16" spans="1:261" ht="15">
+      <c r="A16" s="107">
+        <v>16</v>
+      </c>
+      <c r="B16" s="108"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="107"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="113"/>
+      <c r="IS16" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="IT16" s="124"/>
+      <c r="IU16" s="120"/>
+      <c r="IV16" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="IW16" s="125"/>
+      <c r="IX16" s="125"/>
+      <c r="IY16" s="125"/>
+      <c r="IZ16" s="125"/>
+    </row>
+    <row r="17" spans="1:260" ht="51">
+      <c r="A17" s="107">
+        <v>17</v>
+      </c>
+      <c r="B17" s="108"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="107"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="113"/>
+      <c r="IS17" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="IT17" s="126"/>
+      <c r="IU17" s="120"/>
+      <c r="IV17" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="IW17" s="125"/>
+      <c r="IX17" s="125"/>
+      <c r="IY17" s="125"/>
+      <c r="IZ17" s="125"/>
+    </row>
+    <row r="18" spans="1:260" ht="51">
+      <c r="A18" s="107">
+        <v>18</v>
+      </c>
+      <c r="B18" s="108"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="107"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="113"/>
+      <c r="IS18" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="IT18" s="127"/>
+      <c r="IU18" s="120"/>
+      <c r="IV18" s="125" t="s">
+        <v>135</v>
+      </c>
       <c r="IW18" s="125"/>
       <c r="IX18" s="125"/>
       <c r="IY18" s="125"/>
-      <c r="IZ18" s="126"/>
+      <c r="IZ18" s="125"/>
     </row>
     <row r="19" spans="1:260" ht="15">
-      <c r="A19" s="112">
-        <v>15</v>
-      </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="112">
+      <c r="A19" s="107">
+        <v>19</v>
+      </c>
+      <c r="B19" s="108"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="112"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
-      <c r="IS19" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="IT19" s="127"/>
-      <c r="IU19" s="125"/>
-      <c r="IV19" s="125"/>
-      <c r="IW19" s="125"/>
-      <c r="IX19" s="125"/>
-      <c r="IY19" s="125"/>
-      <c r="IZ19" s="126"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="113"/>
+      <c r="IS19" s="128"/>
+      <c r="IT19" s="129"/>
+      <c r="IU19" s="130"/>
+      <c r="IV19" s="130"/>
+      <c r="IW19" s="130"/>
+      <c r="IX19" s="130"/>
+      <c r="IY19" s="130"/>
+      <c r="IZ19" s="131"/>
     </row>
     <row r="20" spans="1:260" ht="15">
-      <c r="A20" s="112">
-        <v>16</v>
-      </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="112">
+      <c r="A20" s="107">
+        <v>20</v>
+      </c>
+      <c r="B20" s="108"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="118"/>
-      <c r="IS20" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="IT20" s="129"/>
-      <c r="IU20" s="125"/>
-      <c r="IV20" s="130" t="s">
-        <v>156</v>
-      </c>
-      <c r="IW20" s="130"/>
-      <c r="IX20" s="130"/>
-      <c r="IY20" s="130"/>
-      <c r="IZ20" s="130"/>
-    </row>
-    <row r="21" spans="1:260" ht="51">
-      <c r="A21" s="112">
-        <v>17</v>
-      </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="112">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="118"/>
-      <c r="IS21" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="IT21" s="131"/>
-      <c r="IU21" s="125"/>
-      <c r="IV21" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="IW21" s="130"/>
-      <c r="IX21" s="130"/>
-      <c r="IY21" s="130"/>
-      <c r="IZ21" s="130"/>
-    </row>
-    <row r="22" spans="1:260" ht="51">
-      <c r="A22" s="112">
-        <v>18</v>
-      </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="112">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118"/>
-      <c r="IS22" s="128" t="s">
-        <v>159</v>
-      </c>
-      <c r="IT22" s="132"/>
-      <c r="IU22" s="125"/>
-      <c r="IV22" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="IW22" s="130"/>
-      <c r="IX22" s="130"/>
-      <c r="IY22" s="130"/>
-      <c r="IZ22" s="130"/>
-    </row>
-    <row r="23" spans="1:260" ht="15">
-      <c r="A23" s="112">
-        <v>19</v>
-      </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="112">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118"/>
-      <c r="IS23" s="133"/>
-      <c r="IT23" s="134"/>
-      <c r="IU23" s="135"/>
-      <c r="IV23" s="135"/>
-      <c r="IW23" s="135"/>
-      <c r="IX23" s="135"/>
-      <c r="IY23" s="135"/>
-      <c r="IZ23" s="136"/>
-    </row>
-    <row r="24" spans="1:260" ht="15">
-      <c r="A24" s="112">
-        <v>20</v>
-      </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="112">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="112"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="113"/>
+    </row>
+    <row r="21" spans="1:260">
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+    </row>
+    <row r="22" spans="1:260">
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+    </row>
+    <row r="23" spans="1:260">
+      <c r="A23" s="132"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+    </row>
+    <row r="24" spans="1:260">
+      <c r="A24" s="132"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="1:260">
-      <c r="A25" s="137"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
     </row>
     <row r="26" spans="1:260">
-      <c r="A26" s="137"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-    </row>
-    <row r="27" spans="1:260">
-      <c r="A27" s="137"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-    </row>
-    <row r="28" spans="1:260">
-      <c r="A28" s="137"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-    </row>
-    <row r="29" spans="1:260">
-      <c r="A29" s="137"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-    </row>
-    <row r="30" spans="1:260">
-      <c r="A30" s="137"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="137"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="132"/>
+    </row>
+    <row r="34" spans="3:32">
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+    </row>
+    <row r="35" spans="3:32">
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+    </row>
+    <row r="36" spans="3:32">
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+    </row>
+    <row r="37" spans="3:32">
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="57"/>
+      <c r="AF37" s="57"/>
     </row>
     <row r="38" spans="3:32">
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
     </row>
     <row r="39" spans="3:32">
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-    </row>
-    <row r="40" spans="3:32">
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="56"/>
-      <c r="AD40" s="56"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="56"/>
-    </row>
-    <row r="41" spans="3:32">
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="56"/>
-      <c r="AC41" s="56"/>
-      <c r="AD41" s="56"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="56"/>
-    </row>
-    <row r="42" spans="3:32">
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="56"/>
-      <c r="AC42" s="56"/>
-      <c r="AD42" s="56"/>
-      <c r="AE42" s="56"/>
-      <c r="AF42" s="56"/>
-    </row>
-    <row r="43" spans="3:32">
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="57"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="57"/>
+      <c r="AF39" s="57"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5">
       <formula1>"Abierto,Mitigado,Ocurrido,Cerrado"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
       <formula1>"1,2,3,4"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>",1,2,3,4,5"</formula1>
       <formula2>0</formula2>
     </dataValidation>
